--- a/mes_tables.xlsx
+++ b/mes_tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="acteur" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Institution" sheetId="6" r:id="rId6"/>
     <sheet name="ServiceUrbanisme" sheetId="7" r:id="rId7"/>
     <sheet name="ServiceBatiment" sheetId="8" r:id="rId8"/>
+    <sheet name="Projet" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>id_acteur</t>
   </si>
@@ -34,69 +35,18 @@
     <t>nom</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>Alice Dupont</t>
-  </si>
-  <si>
-    <t>Resident</t>
-  </si>
-  <si>
-    <t>Bob Martin</t>
-  </si>
-  <si>
-    <t>Promoteur</t>
-  </si>
-  <si>
-    <t>Ville de Plaine SD</t>
-  </si>
-  <si>
-    <t>Institution</t>
-  </si>
-  <si>
-    <t>Clara Moreau</t>
-  </si>
-  <si>
-    <t>Groupe ABC Construction</t>
-  </si>
-  <si>
     <t>id_resident</t>
   </si>
   <si>
-    <t>nombre_membres</t>
-  </si>
-  <si>
     <t>logement</t>
   </si>
   <si>
-    <t>Résidence Les Météores</t>
-  </si>
-  <si>
-    <t>Appartement Centre SD</t>
-  </si>
-  <si>
     <t>id_promoteur</t>
   </si>
   <si>
     <t>entreprise</t>
   </si>
   <si>
-    <t>projet</t>
-  </si>
-  <si>
-    <t>WO2 - Immobilier Bas Carbone</t>
-  </si>
-  <si>
-    <t>Projet Bois Bas Carbone</t>
-  </si>
-  <si>
-    <t>ABC Construction</t>
-  </si>
-  <si>
     <t>id_groupe</t>
   </si>
   <si>
@@ -106,10 +56,76 @@
     <t>role</t>
   </si>
   <si>
-    <t>Maître d’ouvrage projets urbains</t>
-  </si>
-  <si>
     <t>id_service</t>
+  </si>
+  <si>
+    <t>date_naissance</t>
+  </si>
+  <si>
+    <t>Ahmed Benali</t>
+  </si>
+  <si>
+    <t>Groupe Vinci</t>
+  </si>
+  <si>
+    <t>Mairie Saint-Denis</t>
+  </si>
+  <si>
+    <t>composition_foyer</t>
+  </si>
+  <si>
+    <t>Couple + 2 enfants</t>
+  </si>
+  <si>
+    <t>Appartement</t>
+  </si>
+  <si>
+    <t>Personne seule</t>
+  </si>
+  <si>
+    <t>Studio</t>
+  </si>
+  <si>
+    <t>Groupe Vinci Immobilier</t>
+  </si>
+  <si>
+    <t>Nexity</t>
+  </si>
+  <si>
+    <t>Régulation de l’urbanisme</t>
+  </si>
+  <si>
+    <t>Sécurité des bâtiments</t>
+  </si>
+  <si>
+    <t>id_projet</t>
+  </si>
+  <si>
+    <t>statut</t>
+  </si>
+  <si>
+    <t>localisation</t>
+  </si>
+  <si>
+    <t>Résidence Lumière</t>
+  </si>
+  <si>
+    <t>En construction</t>
+  </si>
+  <si>
+    <t>Plaine Saint-Denis</t>
+  </si>
+  <si>
+    <t>Centre Commercial Plaine</t>
+  </si>
+  <si>
+    <t>Terminé</t>
+  </si>
+  <si>
+    <t>Parc Urbain</t>
+  </si>
+  <si>
+    <t>Planifié</t>
   </si>
 </sst>
 </file>
@@ -176,7 +192,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -185,6 +201,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -467,22 +486,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="C1" sqref="C1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.54296875" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -490,80 +505,40 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3">
-        <v>35</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4">
+        <v>29353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3">
-        <v>50</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4">
+        <v>34700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>100</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3">
-        <v>28</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>5</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>25569</v>
       </c>
     </row>
   </sheetData>
@@ -576,12 +551,12 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" customWidth="1"/>
     <col min="4" max="4" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -590,44 +565,44 @@
     </row>
     <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
-        <v>4</v>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="3">
         <v>4</v>
       </c>
-      <c r="C5" s="3">
-        <v>3</v>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -637,34 +612,29 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:D5"/>
+  <dimension ref="A3:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -672,13 +642,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2</v>
       </c>
@@ -686,10 +653,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -699,27 +663,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1"/>
-    </row>
     <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -728,14 +688,6 @@
       </c>
       <c r="B4" s="3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -759,10 +711,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -780,42 +732,49 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C6"/>
+  <dimension ref="A3:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.90625" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>26</v>
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -827,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
@@ -838,10 +797,10 @@
   <sheetData>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -862,7 +821,7 @@
   <dimension ref="A4:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -872,10 +831,10 @@
   <sheetData>
     <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -883,7 +842,81 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="12.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="3">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="3">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
